--- a/project/excel/linkml_map_example.xlsx
+++ b/project/excel/linkml_map_example.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sample" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SampleCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Person" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PersonCollection" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,6 +415,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -431,77 +457,16 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>first_name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>last_name</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>vital_status</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/project/excel/linkml_map_example.xlsx
+++ b/project/excel/linkml_map_example.xlsx
@@ -7,9 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Person" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PersonCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Container" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DataObject" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Investigation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MaterialEntity" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MaterialProcessing" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Participation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Quantity" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="SpecimenCollectionProcess" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Subject" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +432,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>materials</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>participations</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>material_processings</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>specimen_collection_processes</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>investigations</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subjects</t>
         </is>
       </c>
     </row>
@@ -436,6 +467,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -457,12 +506,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>first_name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>last_name</t>
+          <t>part_of</t>
         </is>
       </c>
     </row>
@@ -471,13 +520,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +537,231 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>entries</t>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>used_in</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>concentration</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_output</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>involved_in</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>includes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_raw_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_numeric_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>comparator</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_output</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/project/excel/linkml_map_example.xlsx
+++ b/project/excel/linkml_map_example.xlsx
@@ -7,15 +7,33 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Container" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DataObject" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Investigation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MaterialEntity" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MaterialProcessing" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Participation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Quantity" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SpecimenCollectionProcess" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Subject" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Person" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Participant" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ResearchStudy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Visit" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Organization" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TimePoint" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="TimePeriod" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Identifier" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ResearchStudyCollection" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Questionnaire" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="QuestionnaireItem" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="QuestionnaireResponse" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="QuestionnaireResponseItem" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="QuestionnaireResponseValue" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="QuestionnaireResponseValueDecimal" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="QuestionnaireResponseValueBoolean" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="QuestionnaireResponseValueString" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Condition" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Container" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="DataObject" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Investigation" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="MaterialEntity" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="MaterialProcessing" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Participation" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Quantity" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="SpecimenCollectionProcess" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Subject" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -421,6 +439,526 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>breed</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>year_of_birth</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>vital_status</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>age_at_death</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>year_of_death</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>cause_of_death</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>""</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>""</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"MALE,FEMALE,UNKNOWN"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"HISPANIC_OR_LATINO,NOT_HISPANIC_OR_LATINO"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"AMERICAN_INDIAN_OR_ALASKA_NATIVE,ASIAN,BLACK_OR_AFRICAN_AMERICAN,NATIVE_HAWAIIAN_OR_OTHER_PACIFIC_ISLANDER,UNKNOWN,WHITE"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"ALIVE,DEAD"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>copyright</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>copyright_label</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>items</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>part_of</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>age_at_response</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>items</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>associated_visit</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_questionnaire_item</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>response_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>condition_concept</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>age_at_condition_start</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>age_at_condition_end</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>condition_provenance</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>relationship_to_participant</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>associated_participant</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>associated_visit</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>""</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -472,6 +1010,72 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>associated_person</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>member_of_research_study</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>age_at_enrollment</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>index_timepoint</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>originating_site</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>study_arm</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -484,26 +1088,465 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>part_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>used_in</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>concentration</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_output</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>involved_in</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>includes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_raw_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_numeric_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>comparator</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_output</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name_shortened</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>description_shortened</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>sponsor</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>date_started</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>date_ended</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>part_of</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>research_project_type</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>associated_timepoint</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>principal_investigator</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>consent_code</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"GRU,HMB,DS,NPUNCU,IRB"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>visit_category</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>age_at_visit_start</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>age_at_visit_end</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>visit_provenance</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>associated_participant</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"INPATIENT,EMERGENCY_ROOM,EMERGENCY_ROOM_AND_INPATIENT,NON_HOSPITAL_INSTITUTION,OUTPATIENT,HOME,TELEHEALTH,PHARMACY,LABORATORY,AMBULANCE,CASE_MANAGEMENT"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>name</t>
@@ -511,142 +1554,65 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>part_of</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+          <t>alias</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>organization_type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>used_in</t>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>date_time</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>index_time_point</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>offset_from_index</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>event_type</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>concentration</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_input</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_output</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>involved_in</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>includes</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -659,33 +1625,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_raw_value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_numeric_value</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>has_unit</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>comparator</t>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>period_start</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>period_end</t>
         </is>
       </c>
     </row>
@@ -700,33 +1656,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_input</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_output</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>name</t>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>system</t>
         </is>
       </c>
     </row>
@@ -741,23 +1687,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>entries</t>
         </is>
       </c>
     </row>

--- a/project/excel/linkml_map_example.xlsx
+++ b/project/excel/linkml_map_example.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,11 @@
       <c r="L1" t="inlineStr">
         <is>
           <t>id</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>name</t>
         </is>
       </c>
     </row>
